--- a/attendance-files/DIW/DIW Attendance.xlsx
+++ b/attendance-files/DIW/DIW Attendance.xlsx
@@ -4,19 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="JsgIcuDUvQ9uWNJ1Z5PaHP5Gou+S6jvDGGsO1pU1+zI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="cbtFGKoI00ECsRUeGkWCr+IeuQg2+x1KqRHgTCZsszM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="184">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -116,6 +117,12 @@
     <t>Aaradhya Shrivastava</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>2024PGP548</t>
   </si>
   <si>
@@ -414,13 +421,175 @@
   </si>
   <si>
     <t>Parmar Utsav Jashubhai</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Abdus Samad</t>
+  </si>
+  <si>
+    <t>Divyansh</t>
+  </si>
+  <si>
+    <t>Aryaman</t>
+  </si>
+  <si>
+    <t>Shivani</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Lakshita</t>
+  </si>
+  <si>
+    <t>Sharath</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Arshee</t>
+  </si>
+  <si>
+    <t>Shivi</t>
+  </si>
+  <si>
+    <t>Tarangini</t>
+  </si>
+  <si>
+    <t>Group 3</t>
+  </si>
+  <si>
+    <t>Group 4</t>
+  </si>
+  <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>Shreya</t>
+  </si>
+  <si>
+    <t>Ashwin</t>
+  </si>
+  <si>
+    <t>R Anurag</t>
+  </si>
+  <si>
+    <t>Madhavi</t>
+  </si>
+  <si>
+    <t>Gauri</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Harshita</t>
+  </si>
+  <si>
+    <t>Manan</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Yashonandan</t>
+  </si>
+  <si>
+    <t>Group 5</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Chirag</t>
+  </si>
+  <si>
+    <t>Hussain</t>
+  </si>
+  <si>
+    <t>Medha</t>
+  </si>
+  <si>
+    <t>Brahadeeshwar</t>
+  </si>
+  <si>
+    <t>Somsubhra</t>
+  </si>
+  <si>
+    <t>Group 6</t>
+  </si>
+  <si>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <t>Saloni</t>
+  </si>
+  <si>
+    <t>M Sowmya</t>
+  </si>
+  <si>
+    <t>Ishita</t>
+  </si>
+  <si>
+    <t>Ramachandra</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>Group 7</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Deepika</t>
+  </si>
+  <si>
+    <t>Kashish</t>
+  </si>
+  <si>
+    <t>Naman</t>
+  </si>
+  <si>
+    <t>Sameer</t>
+  </si>
+  <si>
+    <t>Group 8</t>
+  </si>
+  <si>
+    <t>Supriya</t>
+  </si>
+  <si>
+    <t>Sanskar</t>
+  </si>
+  <si>
+    <t>Nimisha</t>
+  </si>
+  <si>
+    <t>Khadeeja</t>
+  </si>
+  <si>
+    <t>Archit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d-mmm-yy"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -474,7 +643,17 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -874,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -944,10 +1123,13 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -976,6 +1158,9 @@
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -985,10 +1170,16 @@
     <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1008,6 +1199,9 @@
     </xf>
     <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,6 +1225,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1400,12 +1598,16 @@
         <v>2.0</v>
       </c>
       <c r="G5" s="24">
-        <v>45658.0</v>
+        <v>45880.0</v>
       </c>
       <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="26">
+        <v>45882.0</v>
+      </c>
       <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="K5" s="26">
+        <v>45887.0</v>
+      </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
@@ -1424,52 +1626,52 @@
       <c r="AA5" s="6"/>
     </row>
     <row r="6" ht="42.75" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="Q6" s="8"/>
@@ -1485,34 +1687,40 @@
       <c r="AA6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="29">
+      <c r="A7" s="30">
         <v>1.0</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
+      <c r="D7" s="33"/>
+      <c r="E7" s="34">
         <f t="shared" ref="E7:E90" si="1">COUNTIF(G7:P7,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="34">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
         <f t="shared" ref="F7:F90" si="2">COUNTIF(G7:P7,"P")</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1526,34 +1734,40 @@
       <c r="AA7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="30">
         <v>2.0</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33">
+      <c r="B8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1567,34 +1781,40 @@
       <c r="AA8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="29">
+      <c r="A9" s="30">
         <v>3.0</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33">
+      <c r="B9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1608,34 +1828,40 @@
       <c r="AA9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="30">
         <v>4.0</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33">
+      <c r="B10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1649,34 +1875,40 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="29">
+      <c r="A11" s="30">
         <v>5.0</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33">
+      <c r="B11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="37"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1690,34 +1922,40 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="29">
+      <c r="A12" s="30">
         <v>6.0</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33">
+      <c r="B12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1731,34 +1969,40 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="29">
+      <c r="A13" s="30">
         <v>7.0</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33">
+      <c r="B13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
+        <v>2</v>
+      </c>
+      <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1772,34 +2016,40 @@
       <c r="AA13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="29">
+      <c r="A14" s="30">
         <v>8.0</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33">
+      <c r="B14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
+        <v>2</v>
+      </c>
+      <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="34"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1813,34 +2063,40 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="29">
+      <c r="A15" s="30">
         <v>9.0</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33">
+      <c r="B15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="34">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1854,34 +2110,40 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="29">
+      <c r="A16" s="30">
         <v>10.0</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33">
+      <c r="B16" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="34"/>
+      <c r="K16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1895,34 +2157,40 @@
       <c r="AA16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="29">
+      <c r="A17" s="30">
         <v>11.0</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33">
+      <c r="B17" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
+        <v>1</v>
+      </c>
+      <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1936,34 +2204,40 @@
       <c r="AA17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="29">
+      <c r="A18" s="30">
         <v>12.0</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33">
+      <c r="B18" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1977,34 +2251,40 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="29">
+      <c r="A19" s="30">
         <v>13.0</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33">
+      <c r="B19" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -2018,34 +2298,40 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="29">
+      <c r="A20" s="30">
         <v>14.0</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33">
+      <c r="B20" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -2059,34 +2345,40 @@
       <c r="AA20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="29">
+      <c r="A21" s="30">
         <v>15.0</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33">
+      <c r="B21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="34">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="34"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2100,34 +2392,40 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="29">
+      <c r="A22" s="30">
         <v>16.0</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33">
+      <c r="B22" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="34">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -2141,34 +2439,40 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="29">
+      <c r="A23" s="30">
         <v>17.0</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33">
+      <c r="B23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2182,34 +2486,40 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="29">
+      <c r="A24" s="30">
         <v>18.0</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33">
+      <c r="B24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="34">
+        <v>2</v>
+      </c>
+      <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -2223,34 +2533,40 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="29">
+      <c r="A25" s="30">
         <v>19.0</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33">
+      <c r="B25" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -2264,34 +2580,40 @@
       <c r="AA25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="29">
+      <c r="A26" s="30">
         <v>20.0</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="34">
+        <v>1</v>
+      </c>
+      <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2305,34 +2627,40 @@
       <c r="AA26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="29">
+      <c r="A27" s="30">
         <v>21.0</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33">
+      <c r="B27" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="37"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2346,34 +2674,40 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="29">
+      <c r="A28" s="30">
         <v>22.0</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33">
+      <c r="B28" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="37"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -2387,34 +2721,40 @@
       <c r="AA28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="29">
+      <c r="A29" s="30">
         <v>23.0</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33">
+      <c r="B29" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="34">
+        <v>1</v>
+      </c>
+      <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="K29" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2428,34 +2768,40 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="29">
+      <c r="A30" s="30">
         <v>24.0</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33">
+      <c r="B30" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="34">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="34"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
@@ -2469,34 +2815,40 @@
       <c r="AA30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="29">
+      <c r="A31" s="30">
         <v>25.0</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33">
+      <c r="B31" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="34">
+        <v>1</v>
+      </c>
+      <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="37"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="37"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
@@ -2510,34 +2862,40 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29">
+      <c r="A32" s="30">
         <v>26.0</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33">
+      <c r="B32" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="I32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="34"/>
+      <c r="K32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -2551,34 +2909,40 @@
       <c r="AA32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="29">
+      <c r="A33" s="30">
         <v>27.0</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33">
+      <c r="B33" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="34">
+        <v>1</v>
+      </c>
+      <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="34"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -2592,34 +2956,40 @@
       <c r="AA33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="29">
+      <c r="A34" s="30">
         <v>28.0</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33">
+      <c r="B34" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="34"/>
+      <c r="I34" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="37"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -2633,34 +3003,40 @@
       <c r="AA34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="29">
+      <c r="A35" s="30">
         <v>29.0</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33">
+      <c r="B35" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="34"/>
+      <c r="I35" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -2674,34 +3050,40 @@
       <c r="AA35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="29">
+      <c r="A36" s="30">
         <v>30.0</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33">
+      <c r="B36" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="34"/>
+      <c r="I36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="34"/>
+      <c r="K36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="37"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
@@ -2715,34 +3097,40 @@
       <c r="AA36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="29">
+      <c r="A37" s="30">
         <v>31.0</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33">
+      <c r="B37" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="34">
+        <v>2</v>
+      </c>
+      <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="37"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
@@ -2756,34 +3144,40 @@
       <c r="AA37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="29">
+      <c r="A38" s="30">
         <v>32.0</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33">
+      <c r="B38" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="34">
+        <v>1</v>
+      </c>
+      <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -2797,34 +3191,40 @@
       <c r="AA38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="29">
+      <c r="A39" s="30">
         <v>33.0</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33">
+      <c r="B39" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="34">
+        <v>2</v>
+      </c>
+      <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="37"/>
+      <c r="K39" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -2838,34 +3238,40 @@
       <c r="AA39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="29">
+      <c r="A40" s="30">
         <v>34.0</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33">
+      <c r="B40" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="34">
+        <v>1</v>
+      </c>
+      <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="34"/>
+      <c r="K40" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -2879,34 +3285,40 @@
       <c r="AA40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="29">
+      <c r="A41" s="30">
         <v>35.0</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33">
+      <c r="B41" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="34">
+        <v>2</v>
+      </c>
+      <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="34"/>
+      <c r="K41" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -2920,34 +3332,40 @@
       <c r="AA41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="29">
+      <c r="A42" s="30">
         <v>36.0</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33">
+      <c r="B42" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="34"/>
+      <c r="I42" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="34"/>
+      <c r="K42" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="34"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -2961,34 +3379,40 @@
       <c r="AA42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="29">
+      <c r="A43" s="30">
         <v>37.0</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33">
+      <c r="B43" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="34">
+        <v>2</v>
+      </c>
+      <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="34"/>
+      <c r="I43" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="34"/>
+      <c r="K43" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="34"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3002,34 +3426,40 @@
       <c r="AA43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="29">
+      <c r="A44" s="30">
         <v>38.0</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33">
+      <c r="B44" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="34">
+        <v>1</v>
+      </c>
+      <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="34"/>
+      <c r="K44" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3043,34 +3473,40 @@
       <c r="AA44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="29">
+      <c r="A45" s="30">
         <v>39.0</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33">
+      <c r="B45" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="34"/>
+      <c r="K45" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -3084,34 +3520,40 @@
       <c r="AA45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="29">
+      <c r="A46" s="30">
         <v>40.0</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33">
+      <c r="B46" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="34">
+        <v>1</v>
+      </c>
+      <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="34"/>
+      <c r="K46" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="34"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -3125,34 +3567,40 @@
       <c r="AA46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="29">
+      <c r="A47" s="30">
         <v>41.0</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33">
+      <c r="B47" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="34"/>
+      <c r="K47" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="37"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
@@ -3166,34 +3614,40 @@
       <c r="AA47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="29">
+      <c r="A48" s="30">
         <v>42.0</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33">
+      <c r="B48" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="34"/>
+      <c r="K48" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="34"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
@@ -3207,34 +3661,40 @@
       <c r="AA48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="29">
+      <c r="A49" s="30">
         <v>43.0</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33">
+      <c r="B49" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="34">
+        <v>1</v>
+      </c>
+      <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="34"/>
+      <c r="I49" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="37"/>
+      <c r="K49" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="37"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
@@ -3248,34 +3708,40 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="29">
+      <c r="A50" s="30">
         <v>44.0</v>
       </c>
-      <c r="B50" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33">
+      <c r="B50" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="34">
+        <v>1</v>
+      </c>
+      <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="34"/>
+      <c r="K50" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
@@ -3289,34 +3755,40 @@
       <c r="AA50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="29">
+      <c r="A51" s="30">
         <v>45.0</v>
       </c>
-      <c r="B51" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33">
+      <c r="B51" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="34">
+        <v>1</v>
+      </c>
+      <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="34"/>
+      <c r="I51" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="34"/>
+      <c r="K51" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="34"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
@@ -3330,34 +3802,40 @@
       <c r="AA51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="29">
+      <c r="A52" s="30">
         <v>46.0</v>
       </c>
-      <c r="B52" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33">
+      <c r="B52" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="34">
+        <v>1</v>
+      </c>
+      <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="34"/>
+      <c r="K52" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
@@ -3371,34 +3849,40 @@
       <c r="AA52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="29">
+      <c r="A53" s="30">
         <v>47.0</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33">
+      <c r="B53" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="34">
+        <v>2</v>
+      </c>
+      <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="34"/>
+      <c r="I53" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="34"/>
+      <c r="K53" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" s="37"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -3412,34 +3896,40 @@
       <c r="AA53" s="6"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="29">
+      <c r="A54" s="30">
         <v>48.0</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33">
+      <c r="B54" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="34">
+        <v>1</v>
+      </c>
+      <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="34"/>
+      <c r="K54" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -3453,34 +3943,40 @@
       <c r="AA54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="29">
+      <c r="A55" s="30">
         <v>49.0</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33">
+      <c r="B55" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="34">
+        <v>1</v>
+      </c>
+      <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="37"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
@@ -3494,34 +3990,40 @@
       <c r="AA55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="29">
+      <c r="A56" s="30">
         <v>50.0</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33">
+      <c r="B56" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="34">
+        <v>2</v>
+      </c>
+      <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="34"/>
+      <c r="I56" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="34"/>
+      <c r="K56" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -3535,34 +4037,40 @@
       <c r="AA56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="29">
+      <c r="A57" s="30">
         <v>51.0</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33">
+      <c r="B57" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="34">
+        <v>2</v>
+      </c>
+      <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="34"/>
+      <c r="I57" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="34"/>
+      <c r="K57" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="34"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
@@ -3576,30 +4084,30 @@
       <c r="AA57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="29">
+      <c r="A58" s="30">
         <v>52.0</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33">
+      <c r="B58" s="44"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
@@ -3613,30 +4121,30 @@
       <c r="AA58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="29">
+      <c r="A59" s="30">
         <v>53.0</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33">
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
@@ -3650,30 +4158,30 @@
       <c r="AA59" s="6"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="29">
+      <c r="A60" s="30">
         <v>54.0</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33">
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
@@ -3687,30 +4195,30 @@
       <c r="AA60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="29">
+      <c r="A61" s="30">
         <v>55.0</v>
       </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33">
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
@@ -3724,30 +4232,30 @@
       <c r="AA61" s="6"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="29">
+      <c r="A62" s="30">
         <v>56.0</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33">
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
@@ -3761,30 +4269,30 @@
       <c r="AA62" s="6"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="29">
+      <c r="A63" s="30">
         <v>57.0</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33">
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
@@ -3798,30 +4306,30 @@
       <c r="AA63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="29">
+      <c r="A64" s="30">
         <v>58.0</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33">
+      <c r="B64" s="44"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="35"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="37"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
@@ -3835,30 +4343,30 @@
       <c r="AA64" s="6"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="29">
+      <c r="A65" s="30">
         <v>59.0</v>
       </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33">
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
@@ -3872,30 +4380,30 @@
       <c r="AA65" s="6"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="29">
+      <c r="A66" s="30">
         <v>60.0</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33">
+      <c r="B66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
@@ -3909,30 +4417,30 @@
       <c r="AA66" s="6"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="29">
+      <c r="A67" s="30">
         <v>61.0</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33">
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
@@ -3946,30 +4454,30 @@
       <c r="AA67" s="6"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="29">
+      <c r="A68" s="30">
         <v>62.0</v>
       </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="33">
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F68" s="34">
+      <c r="F68" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
@@ -3983,30 +4491,30 @@
       <c r="AA68" s="6"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="29">
+      <c r="A69" s="30">
         <v>63.0</v>
       </c>
-      <c r="B69" s="40"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="33">
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
@@ -4020,30 +4528,30 @@
       <c r="AA69" s="6"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="29">
+      <c r="A70" s="30">
         <v>64.0</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33">
+      <c r="B70" s="44"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
@@ -4057,30 +4565,30 @@
       <c r="AA70" s="6"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="29">
+      <c r="A71" s="30">
         <v>65.0</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="33">
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
@@ -4094,30 +4602,30 @@
       <c r="AA71" s="6"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="29">
+      <c r="A72" s="30">
         <v>66.0</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="33">
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
@@ -4131,30 +4639,30 @@
       <c r="AA72" s="6"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="29">
+      <c r="A73" s="30">
         <v>67.0</v>
       </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="33">
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
@@ -4168,30 +4676,30 @@
       <c r="AA73" s="6"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="29">
+      <c r="A74" s="30">
         <v>68.0</v>
       </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="33">
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F74" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G74" s="33"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
@@ -4205,30 +4713,30 @@
       <c r="AA74" s="6"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="29">
+      <c r="A75" s="30">
         <v>69.0</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="33">
+      <c r="B75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -4242,30 +4750,30 @@
       <c r="AA75" s="6"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="29">
+      <c r="A76" s="30">
         <v>70.0</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="33">
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -4279,30 +4787,30 @@
       <c r="AA76" s="6"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="29">
+      <c r="A77" s="30">
         <v>71.0</v>
       </c>
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="33">
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="35"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="37"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -4316,30 +4824,30 @@
       <c r="AA77" s="6"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="29">
+      <c r="A78" s="30">
         <v>72.0</v>
       </c>
-      <c r="B78" s="40"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="33">
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="33"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
@@ -4353,30 +4861,30 @@
       <c r="AA78" s="6"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="29">
+      <c r="A79" s="30">
         <v>73.0</v>
       </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="33">
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="35"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="37"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -4390,30 +4898,30 @@
       <c r="AA79" s="6"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="29">
+      <c r="A80" s="30">
         <v>74.0</v>
       </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="33">
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F80" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
@@ -4427,30 +4935,30 @@
       <c r="AA80" s="6"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="29">
+      <c r="A81" s="30">
         <v>75.0</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="33">
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F81" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
@@ -4464,30 +4972,30 @@
       <c r="AA81" s="6"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="29">
+      <c r="A82" s="30">
         <v>76.0</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="33">
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
@@ -4501,30 +5009,30 @@
       <c r="AA82" s="6"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="29">
+      <c r="A83" s="30">
         <v>77.0</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="33">
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
@@ -4538,30 +5046,30 @@
       <c r="AA83" s="6"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="29">
+      <c r="A84" s="30">
         <v>78.0</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="33">
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
@@ -4575,30 +5083,30 @@
       <c r="AA84" s="6"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="29">
+      <c r="A85" s="30">
         <v>79.0</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="33">
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F85" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="32"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
@@ -4612,30 +5120,30 @@
       <c r="AA85" s="6"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="29">
+      <c r="A86" s="30">
         <v>80.0</v>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="33">
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
@@ -4649,30 +5157,30 @@
       <c r="AA86" s="6"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="29">
+      <c r="A87" s="30">
         <v>81.0</v>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="33">
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
@@ -4686,30 +5194,30 @@
       <c r="AA87" s="6"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="29">
+      <c r="A88" s="30">
         <v>82.0</v>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="33">
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F88" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
@@ -4723,30 +5231,30 @@
       <c r="AA88" s="6"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="29">
+      <c r="A89" s="30">
         <v>83.0</v>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="33">
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F89" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
@@ -4760,30 +5268,30 @@
       <c r="AA89" s="6"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="43">
+      <c r="A90" s="47">
         <v>86.0</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="33">
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F90" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
@@ -11323,4 +11831,289 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>